--- a/hardware/Switch Position.xlsx
+++ b/hardware/Switch Position.xlsx
@@ -501,43 +501,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f xml:space="preserve"> B2+0.75</f>
+        <f t="shared" ref="C2:L2" si="0" xml:space="preserve"> B2+0.75</f>
         <v>0.75</v>
       </c>
       <c r="D2">
-        <f xml:space="preserve"> C2+0.75</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E2">
-        <f xml:space="preserve"> D2+0.75</f>
+        <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
       <c r="F2">
-        <f xml:space="preserve"> E2+0.75</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G2">
-        <f xml:space="preserve"> F2+0.75</f>
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
       <c r="H2">
-        <f xml:space="preserve"> G2+0.75</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="I2">
-        <f xml:space="preserve"> H2+0.75</f>
+        <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
       <c r="J2">
-        <f xml:space="preserve"> I2+0.75</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K2">
-        <f xml:space="preserve"> J2+0.75</f>
+        <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
       <c r="L2">
-        <f xml:space="preserve"> K2+0.75</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="M2">
@@ -561,39 +561,39 @@
         <v>0.9375</v>
       </c>
       <c r="D3">
-        <f xml:space="preserve"> C3+0.75</f>
+        <f t="shared" ref="D3:L3" si="1" xml:space="preserve"> C3+0.75</f>
         <v>1.6875</v>
       </c>
       <c r="E3">
-        <f xml:space="preserve"> D3+0.75</f>
+        <f t="shared" si="1"/>
         <v>2.4375</v>
       </c>
       <c r="F3">
-        <f xml:space="preserve"> E3+0.75</f>
+        <f t="shared" si="1"/>
         <v>3.1875</v>
       </c>
       <c r="G3">
-        <f xml:space="preserve"> F3+0.75</f>
+        <f t="shared" si="1"/>
         <v>3.9375</v>
       </c>
       <c r="H3">
-        <f xml:space="preserve"> G3+0.75</f>
+        <f t="shared" si="1"/>
         <v>4.6875</v>
       </c>
       <c r="I3">
-        <f xml:space="preserve"> H3+0.75</f>
+        <f t="shared" si="1"/>
         <v>5.4375</v>
       </c>
       <c r="J3">
-        <f xml:space="preserve"> I3+0.75</f>
+        <f t="shared" si="1"/>
         <v>6.1875</v>
       </c>
       <c r="K3">
-        <f xml:space="preserve"> J3+0.75</f>
+        <f t="shared" si="1"/>
         <v>6.9375</v>
       </c>
       <c r="L3">
-        <f xml:space="preserve"> K3+0.75</f>
+        <f t="shared" si="1"/>
         <v>7.6875</v>
       </c>
       <c r="M3">
@@ -618,39 +618,39 @@
         <v>1.125</v>
       </c>
       <c r="D4">
-        <f xml:space="preserve"> C4+0.75</f>
+        <f t="shared" ref="D4:L4" si="2" xml:space="preserve"> C4+0.75</f>
         <v>1.875</v>
       </c>
       <c r="E4">
-        <f xml:space="preserve"> D4+0.75</f>
+        <f t="shared" si="2"/>
         <v>2.625</v>
       </c>
       <c r="F4">
-        <f xml:space="preserve"> E4+0.75</f>
+        <f t="shared" si="2"/>
         <v>3.375</v>
       </c>
       <c r="G4">
-        <f xml:space="preserve"> F4+0.75</f>
+        <f t="shared" si="2"/>
         <v>4.125</v>
       </c>
       <c r="H4">
-        <f xml:space="preserve"> G4+0.75</f>
+        <f t="shared" si="2"/>
         <v>4.875</v>
       </c>
       <c r="I4">
-        <f xml:space="preserve"> H4+0.75</f>
+        <f t="shared" si="2"/>
         <v>5.625</v>
       </c>
       <c r="J4">
-        <f xml:space="preserve"> I4+0.75</f>
+        <f t="shared" si="2"/>
         <v>6.375</v>
       </c>
       <c r="K4">
-        <f xml:space="preserve"> J4+0.75</f>
+        <f t="shared" si="2"/>
         <v>7.125</v>
       </c>
       <c r="L4">
-        <f xml:space="preserve"> K4+0.75</f>
+        <f t="shared" si="2"/>
         <v>7.875</v>
       </c>
       <c r="M4">
